--- a/docs/ST4/ST4_16.08.2024_output.xlsx
+++ b/docs/ST4/ST4_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2754 +505,3265 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731440926.3789854</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731440926.5420315</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440926.3789854.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440926.5420315.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.44</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731440928.5594075</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731440929.8996527</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440928.5594075.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440929.8996527.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.03</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.02999999999997272</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731440934.2612238</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731440934.663239</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440934.2612238.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440934.663239.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.23</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278.05</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731440940.8490708</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731440941.0051596</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440940.8490708.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440941.0051596.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.23</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.44</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731440942.839389</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731440944.039567</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440942.839389.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440944.039567.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.03</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.02999999999997272</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731440947.7714934</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731440948.0551603</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440947.7714934.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440948.0551603.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.23</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278.05</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731440951.2136197</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731440951.308829</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440951.2136197.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440951.308829.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.46</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.63</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1700000000000159</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731440951.7724416</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731440954.5995486</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440951.7724416.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440954.5995486.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>277.41</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.92</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731440956.8566277</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731440957.4368606</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440956.8566277.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440957.4368606.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.57</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278.41</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1599999999999682</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731440957.7940466</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731440958.0947137</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440957.7940466.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440958.0947137.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.82</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.68</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731440963.145082</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731440963.239957</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440963.145082.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440963.239957.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.7</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.61</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.08999999999997499</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731440966.6430733</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731440967.1257825</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440966.6430733.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440967.1257825.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.37</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.41</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731440968.6566632</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731440970.505766</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440968.6566632.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440970.505766.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.37</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>127.1</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.2700000000000102</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731440971.3700578</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731440973.5759764</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440971.3700578.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440973.5759764.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>126.84</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>127.27</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4299999999999926</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731440973.696386</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731440973.7904098</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440973.696386.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440973.7904098.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.68</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>127.47</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731440978.3723464</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731440978.740699</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440978.3723464.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440978.740699.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.56</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>127.66</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731440979.0325592</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731440979.7964342</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440979.0325592.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440979.7964342.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>128.06</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.92</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731440980.2921479</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731440980.2921479.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731440980.2921479.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>128.16</v>
       </c>
-      <c r="J20" t="n">
-        <v>128.16</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>127.95</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2099999999999937</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731440982.0010567</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731440982.4104435</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440982.0010567.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440982.4104435.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6329.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6321.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731440984.2506633</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731440984.470395</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440984.2506633.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440984.470395.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6318</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6319</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731440986.052747</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731440986.7950025</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440986.052747.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440986.7950025.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6308</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6318</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731440990.1319993</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731440992.8667097</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440990.1319993.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440992.8667097.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6308</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6299</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-9</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731440994.271256</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731440994.4069111</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440994.271256.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440994.4069111.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6318.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6317</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731440994.5493436</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731440994.7173495</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440994.5493436.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440994.7173495.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6320</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6314</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731440995.2776544</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731440995.2776544.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731440995.2776544.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6322.5</v>
       </c>
-      <c r="J27" t="n">
-        <v>6322.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>6326</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731441003.0454092</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731441004.7422373</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441003.0454092.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441004.7422373.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>493</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>494.55</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.550000000000011</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731441005.5209417</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731441005.727465</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441005.5209417.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441005.727465.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>493.45</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>493.8</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731441005.814058</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731441007.990808</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441005.814058.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441007.990808.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>493.3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>493.15</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.1500000000000341</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731441019.2999332</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731441020.2394376</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441019.2999332.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441020.2394376.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>223.71</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>224.04</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.3299999999999841</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731441027.6411538</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731441031.108474</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441027.6411538.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441031.108474.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1026.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1020</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-6.400000000000091</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731441032.4953697</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731441033.559854</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441032.4953697.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441033.559854.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1015</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1019</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731441035.0476258</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731441038.1614232</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441035.0476258.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441038.1614232.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1017</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731441039.9216278</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731441039.9216278.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731441039.9216278.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1019.6</v>
       </c>
-      <c r="J35" t="n">
-        <v>1019.6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-1.399999999999977</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731441041.3350313</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731441041.9472017</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441041.3350313.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441041.9472017.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>12.119</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>12.113</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.006000000000000227</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731441043.192572</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731441044.201529</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441043.192572.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441044.201529.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>12.138</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>12.111</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.02699999999999925</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731441049.549356</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731441051.2557666</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441049.549356.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441051.2557666.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>12.092</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>12.081</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.01100000000000101</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731441053.2713444</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731441054.4400332</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441053.2713444.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441054.4400332.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>12.084</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>12.085</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731441056.1159434</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731441057.1012213</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441056.1159434.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441057.1012213.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>125.06</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>124.9</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731441059.8569102</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731441060.4428315</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441059.8569102.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441060.4428315.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>124.92</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>125.02</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731441061.2786238</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731441062.0254188</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441061.2786238.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441062.0254188.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>124.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>124.64</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731441064.90437</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731441065.871797</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441064.90437.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441065.871797.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>125.28</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>125.38</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731441066.5676181</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731441067.299766</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441066.5676181.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441067.299766.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>125.58</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>125.46</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731441068.4766405</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731441069.0466437</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441068.4766405.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441069.0466437.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>126.02</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>126.14</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731441069.5996</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731441070.0826263</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441069.5996.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441070.0826263.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>126.7</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>127</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.2999999999999972</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731441070.8684528</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731441071.0876079</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441070.8684528.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441071.0876079.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>161.3</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>161.62</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731441071.5885906</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731441071.9157941</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441071.5885906.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441071.9157941.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>161.14</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>161.36</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2200000000000273</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731441078.405315</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731441079.1224027</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441078.405315.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441079.1224027.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>162.36</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>162.12</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731441082.0596774</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731441083.3969936</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441082.0596774.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441083.3969936.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>162.5</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>162.78</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731441086.3493319</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731441086.832824</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441086.3493319.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441086.832824.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>49.685</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>49.7</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731441090.974106</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731441091.3622801</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441090.974106.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441091.3622801.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>49.665</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>49.745</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731441094.662666</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731441094.7549696</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441094.662666.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441094.7549696.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>49.655</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>49.68</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731441095.2582374</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731441095.343633</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441095.2582374.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441095.343633.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>49.655</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>49.665</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731441097.145119</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731441097.5093758</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441097.145119.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441097.5093758.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>49.765</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>49.76</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.005000000000002558</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731441099.265274</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731441099.265274.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731441099.265274.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>49.84</v>
       </c>
-      <c r="J56" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
+      <c r="L56" t="n">
+        <v>49.775</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.06500000000000483</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731441101.7933724</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731441101.8708065</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441101.7933724.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441101.8708065.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1377</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1379.2</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731441103.7985334</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731441104.3609197</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441103.7985334.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441104.3609197.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1377.2</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1377.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,48 +3771,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731441105.1393485</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731441105.4280024</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441105.1393485.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441105.4280024.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1375.6</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,146 +3829,173 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731441110.84919</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731441112.226062</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441110.84919.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441112.226062.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1383.2</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1385.8</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-2.599999999999909</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731441119.4810104</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731441119.9079325</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441119.4810104.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441119.9079325.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>58.75</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>58.76</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731441122.4773338</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731441122.8803246</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441122.4773338.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441122.8803246.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>58.68</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>58.68</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3441,996 +4003,1185 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731441125.1785514</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731441125.3974938</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441125.1785514.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441125.3974938.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>58.51</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>58.61</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731441126.0811894</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731441126.6774487</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441126.0811894.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441126.6774487.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>58.5</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>58.72</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731441133.7731836</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731441133.828566</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441133.7731836.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441133.828566.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>98.55</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>98.56</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731441134.6864908</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731441135.4729705</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441134.6864908.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441135.4729705.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>98.47</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>98.61</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731441137.2366893</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731441137.3273776</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441137.2366893.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441137.3273776.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>98.88</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>98.84999999999999</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731441138.6933014</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731441140.0953364</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441138.6933014.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441140.0953364.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>98.91</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>98.81999999999999</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731441141.0210361</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731441141.3350866</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441141.0210361.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441141.3350866.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>98.94</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731441142.2053075</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731441142.8774836</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441142.2053075.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441142.8774836.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>99.04000000000001</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>99</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731441143.2302666</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731441143.6370285</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441143.2302666.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441143.6370285.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>99.25</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>99.16</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731441144.1461976</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731441144.1461976.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731441144.1461976.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>99.3</v>
       </c>
-      <c r="J72" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
+      <c r="L72" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731441145.173114</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731441146.554259</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441145.173114.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441146.554259.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>54.7</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>54.48</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.220000000000006</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731441146.5691931</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731441147.1826851</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441146.5691931.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441147.1826851.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>54.48</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>54.5</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731441153.1892316</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731441155.5904324</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441153.1892316.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441155.5904324.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>54.36</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>54.6</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.240000000000002</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731441157.1170962</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731441157.1170962.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731441157.1170962.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>54.79</v>
       </c>
-      <c r="J76" t="n">
-        <v>54.79</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>55.08</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.2899999999999991</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731441168.751467</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731441168.751467.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731441168.751467.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>153.12</v>
       </c>
-      <c r="J77" t="n">
-        <v>153.12</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
+      <c r="L77" t="n">
+        <v>153.28</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731441170.329969</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731441170.329969.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731441170.329969.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.304</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
+      <c r="L78" t="n">
+        <v>0.3056</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.00159999999999999</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731441174.439393</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731441175.091951</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441174.439393.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441175.091951.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>19.837</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>19.835</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.001999999999998892</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731441175.1454935</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731441175.6332445</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441175.1454935.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441175.6332445.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>19.802</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>19.785</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.01699999999999946</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731441178.6936166</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731441180.4348269</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441178.6936166.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441180.4348269.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>19.75</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>19.733</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.01699999999999946</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731441185.128341</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731441185.6661212</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441185.128341.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441185.6661212.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>19.828</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>19.883</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.05499999999999972</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731441186.6650898</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731441187.6148925</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441186.6650898.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441187.6148925.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>19.95</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>19.95</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,539 +5189,638 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731441194.3678505</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731441194.4503484</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441194.3678505.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441194.4503484.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>675.05</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>675.3</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731441194.733089</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731441194.781848</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441194.733089.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441194.781848.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>674.65</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>675.3</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731441198.1438644</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731441198.931087</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441198.1438644.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441198.931087.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>675</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>673.55</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-1.450000000000045</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731441199.6050596</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731441199.6519344</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441199.6050596.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441199.6519344.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>671.1</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>672.6</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731441206.7095127</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731441206.7663147</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441206.7095127.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441206.7663147.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>148.68</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>148.75</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731441208.2364051</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731441208.4107459</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441208.2364051.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441208.4107459.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>148.59</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>148.67</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731441208.8226416</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731441209.4735258</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441208.8226416.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441209.4735258.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>148.57</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>148.59</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731441210.785019</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731441211.8404417</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441210.785019.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441211.8404417.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>148.37</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>148.42</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.04999999999998295</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731441212.1878238</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731441213.813427</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441212.1878238.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441213.813427.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>148.17</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>148.51</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731441215.2196403</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731441215.3811584</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441215.2196403.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441215.3811584.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>149.04</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>148.94</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731441217.697667</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731441217.8527243</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441217.697667.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441217.8527243.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>149.41</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>149.14</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.2700000000000102</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +5834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5013,6 +5863,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5021,13 +5881,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4400000000000119</v>
+        <v>0.3800000000000097</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05500000000000149</v>
+        <v>0.04750000000000121</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -5045,6 +5911,12 @@
       <c r="D3" t="n">
         <v>0.1787499999999937</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5061,6 +5933,12 @@
       <c r="D4" t="n">
         <v>0.1328571428571398</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5069,13 +5947,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4499999999999886</v>
+        <v>0.6599999999999824</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06428571428571266</v>
+        <v>0.09428571428571177</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5093,6 +5977,12 @@
       <c r="D6" t="n">
         <v>-0.05999999999999821</v>
       </c>
+      <c r="E6" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5101,13 +5991,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2142857142857143</v>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="8">
@@ -5117,13 +6013,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.134999999999998</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02249999999999967</v>
+        <v>0.0333333333333338</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5141,6 +6043,12 @@
       <c r="D9" t="n">
         <v>-0.0181999999999995</v>
       </c>
+      <c r="E9" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5157,6 +6065,12 @@
       <c r="D10" t="n">
         <v>0.08249999999999957</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5173,6 +6087,12 @@
       <c r="D11" t="n">
         <v>0.1250000000000071</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5181,13 +6101,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.600000000000136</v>
+        <v>-5.000000000000114</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.9000000000000341</v>
+        <v>-1.250000000000028</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="13">
@@ -5205,6 +6131,12 @@
       <c r="D13" t="n">
         <v>-0.01074999999999982</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5213,13 +6145,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.4800000000000111</v>
+        <v>-0.7700000000000102</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1200000000000028</v>
+        <v>-0.1925000000000026</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="15">
@@ -5237,6 +6175,12 @@
       <c r="D15" t="n">
         <v>0.2374999999999829</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5253,6 +6197,12 @@
       <c r="D16" t="n">
         <v>-0.09999999999996589</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5269,6 +6219,12 @@
       <c r="D17" t="n">
         <v>0.5833333333333334</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5285,6 +6241,12 @@
       <c r="D18" t="n">
         <v>0.1200000000000045</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5301,6 +6263,12 @@
       <c r="D19" t="n">
         <v>-0.3299999999999841</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5309,13 +6277,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.00159999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.00159999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="21">
@@ -5325,13 +6299,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.1599999999999966</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="22">
@@ -5347,6 +6327,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
